--- a/Documentos/diagrama 1-1-2015.xlsx
+++ b/Documentos/diagrama 1-1-2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,51 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="17592675" cy="17659350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19242881" cy="20221575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,7 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="E31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -402,11 +449,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
